--- a/output/test.xlsx
+++ b/output/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>Temp A</t>
   </si>
@@ -44,18 +44,6 @@
     <t>DUE-AMOUNT-1</t>
   </si>
   <si>
-    <t>CONTROL-DIM-2</t>
-  </si>
-  <si>
-    <t>DUE-AMOUNT-2</t>
-  </si>
-  <si>
-    <t>CONTROL-DIM-3</t>
-  </si>
-  <si>
-    <t>DUE-AMOUNT-3</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -81,12 +69,6 @@
   </si>
   <si>
     <t>10000</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>4000</t>
   </si>
   <si>
     <t>DT</t>
@@ -207,141 +189,197 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/output/test.xlsx
+++ b/output/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>Temp A</t>
   </si>
@@ -38,6 +38,9 @@
     <t>AIRCRAFT</t>
   </si>
   <si>
+    <t>THRESHOLD-USED</t>
+  </si>
+  <si>
     <t>CONTROL-DIM-1</t>
   </si>
   <si>
@@ -65,12 +68,21 @@
     <t>VT-SGU</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>10000</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
     <t>DT</t>
   </si>
   <si>
@@ -93,6 +105,9 @@
   </si>
   <si>
     <t>VT-SGZ</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>AH</t>
@@ -189,100 +204,112 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -306,80 +333,124 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
         <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
